--- a/code/src/filtered_data.xlsx
+++ b/code/src/filtered_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,166 +458,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CUSIP (CUSIP)</t>
+          <t>Obligor Name (ObligorName)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLCO9161</t>
+          <t>CLCO9017</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Report the CUSIP of the obligor, if available. CUSIPs are identifiers created and delivered by the CSB (CUSIP Service Bureau). The CSB is managed on behalf of the American Bankers Association by Standard &amp; Poor’s. Issuer codes are assigned alphabetically from a series that includes deliberate built-in “gaps” for future expansion.</t>
+          <t>Report the obligor name on the credit facility.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Must be valid 6 digit CUSIP number issued by the CUSIP Service Bureau.</t>
+          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>CUSIP (CUSIP)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
+          <t>CLCO9161</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Report the CUSIP of the obligor, if available. CUSIPs are identifiers created and delivered by the CSB (CUSIP Service Bureau). The CSB is managed on behalf of the American Bankers Association by Standard &amp; Poor’s. Issuer codes are assigned alphabetically from a series that includes deliberate built-in “gaps” for future expansion.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Must be valid 6 digit CUSIP number issued by the CUSIP Service Bureau.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>Credit Facility Type</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
+          <t>CLCO9017</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Report the obligor name on the credit facility.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>Credit Facility Type</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
+          <t>CLCO9017</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Report the obligor name on the credit facility.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CUSIP Number</t>
+          <t>Obligor City</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLCO9007</t>
+          <t>CLCO9031</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
+          <t>Report the domicile of the obligor.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number.</t>
+          <t>Use the 2-letter Country Code.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>Industry Code Scheme</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
+          <t>CLCO4001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Free text indicating the obligor rating grade.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>Obligor Rating Grade</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
+          <t>CLCO5023</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>9-digit IRS identification number.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>IRS Identification</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
+          <t>CLCO6002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -634,34 +634,34 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CUSIP Number</t>
+          <t>Other Info 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLCO9007</t>
+          <t>CLCO7005</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
+          <t>Free text</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number.</t>
+          <t>Free text</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>Other Info 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
+          <t>CLCO8006</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -678,122 +678,122 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>CUSIP Number</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
+          <t>CLCO9007</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Must be valid 6-digit CUSIP number.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>Credit Facility Type</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
+          <t>CLCO9017</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Report the obligor name on the credit facility.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CUSIP Number</t>
+          <t>Obligor City</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLCO9007</t>
+          <t>CLCO9031</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
+          <t>Report the domicile of the obligor.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number.</t>
+          <t>Use the 2-letter Country Code.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>Industry Code Scheme</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
+          <t>CLCO4001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Free text indicating the obligor rating grade.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>Obligor Rating Grade</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
+          <t>CLCO5023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>9-digit IRS identification number.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>IRS Identification</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
+          <t>CLCO6002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -810,34 +810,34 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CUSIP Number</t>
+          <t>Other Info 1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLCO9007</t>
+          <t>CLCO7005</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
+          <t>Free text</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number.</t>
+          <t>Free text</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>Other Info 2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
+          <t>CLCO8006</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -854,122 +854,122 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>CUSIP Number</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
+          <t>CLCO9007</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Must be valid 6-digit CUSIP number.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>Credit Facility Type</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
+          <t>CLCO9017</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Report the obligor name on the credit facility.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CUSIP Number</t>
+          <t>Obligor City</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLCO9007</t>
+          <t>CLCO9031</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
+          <t>Report the domicile of the obligor.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number.</t>
+          <t>Use the 2-letter Country Code.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>Industry Code Scheme</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
+          <t>CLCO4001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>Free text indicating the obligor rating grade.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>Obligor Rating Grade</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
+          <t>CLCO5023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>9-digit IRS identification number.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>IRS Identification</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
+          <t>CLCO6002</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -986,22 +986,660 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Other Info 1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CLCO7005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Other Info 2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CLCO8006</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>CUSIP Number</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>CLCO9007</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Must be valid 6-digit CUSIP number.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Credit Facility Type</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CLCO9017</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Report the obligor name on the credit facility.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Obligor City</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CLCO9031</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Report the domicile of the obligor.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Use the 2-letter Country Code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Industry Code Scheme</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CLCO4001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Free text indicating the obligor rating grade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Obligor Rating Grade</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CLCO5023</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9-digit IRS identification number.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>IRS Identification</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CLCO6002</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Other Info 1</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CLCO7005</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Other Info 2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CLCO8006</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CUSIP Number</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CLCO9007</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Must be valid 6-digit CUSIP number.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Credit Facility Type</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CLCO9017</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Report the obligor name on the credit facility.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Obligor City</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CLCO9031</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Report the domicile of the obligor.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Use the 2-letter Country Code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Industry Code Scheme</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CLCO4001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Free text indicating the obligor rating grade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Obligor Rating Grade</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CLCO5023</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9-digit IRS identification number.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IRS Identification</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CLCO6002</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Other Info 1</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CLCO7005</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Other Info 2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CLCO8006</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CUSIP Number</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CLCO9007</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Must be valid 6-digit CUSIP number.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Credit Facility Type</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CLCO9017</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Report the obligor name on the credit facility.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Obligor City</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CLCO9031</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Report the domicile of the obligor.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Use the 2-letter Country Code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Industry Code Scheme</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CLCO4001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Free text indicating the obligor rating grade.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Obligor Rating Grade</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CLCO5023</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9-digit IRS identification number.</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>IRS Identification</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CLCO6002</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Other Info 1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CLCO7005</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Other Info 2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CLCO8006</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Free text</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CUSIP Number</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CLCO9007</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Must be valid 6-digit CUSIP number.</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Credit Facility Type</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CLCO9017</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Report the obligor name on the credit facility.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Obligor City</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CLCO9031</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Report the domicile of the obligor.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Use the 2-letter Country Code.</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Industry Code Scheme</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CLCO4001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Free text indicating the obligor rating grade.</t>
         </is>
       </c>
     </row>

--- a/code/src/filtered_data.xlsx
+++ b/code/src/filtered_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1210 +436,6107 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Field Name; (Technical Field Name)</t>
+          <t>TransactionID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MDRM</t>
+          <t>CustomerID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>TransactionType</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>KYCStatus</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AMLFlag</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>RiskScore</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Country</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>RegulatoryCheck</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Allowable Values</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Obligor Name (ObligorName)</t>
+          <t>TXN001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLCO9017</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Report the obligor name on the credit facility.</t>
-        </is>
+          <t>CUST001</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5000</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Monthly salary deposit processed by employer. Regular transaction observed. No unusual activity detected. Compliance checks completed successfully.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CUSIP (CUSIP)</t>
+          <t>TXN005</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLCO9161</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Report the CUSIP of the obligor, if available. CUSIPs are identifiers created and delivered by the CSB (CUSIP Service Bureau). The CSB is managed on behalf of the American Bankers Association by Standard &amp; Poor’s. Issuer codes are assigned alphabetically from a series that includes deliberate built-in “gaps” for future expansion.</t>
-        </is>
+          <t>CUST005</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25000</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Must be valid 6 digit CUSIP number issued by the CUSIP Service Bureau.</t>
+          <t>INR</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Withdrawal</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>High-value withdrawal flagged for potential money laundering. Customer account flagged for review. Requires enhanced due diligence. Suspicious transaction report generated.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Credit Facility Type</t>
+          <t>TXN006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLCO9017</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Report the obligor name on the credit facility.</t>
-        </is>
+          <t>CUST006</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7000</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>International money transfer to an unverified recipient. Compliance checks in progress. Past transactions show similar transfers. Awaiting customer confirmation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Credit Facility Type</t>
+          <t>TXN007</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLCO9017</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Report the obligor name on the credit facility.</t>
-        </is>
+          <t>CUST007</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3000</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Freelance earnings deposit received via online payment. Regular transaction for this customer. No compliance issues detected. Cleared for processing.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Obligor City</t>
+          <t>TXN008</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLCO9031</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Report the domicile of the obligor.</t>
-        </is>
+          <t>CUST008</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Use the 2-letter Country Code.</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Withdrawal</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Unusual high-value withdrawal detected at an ATM. Customer flagged for verification. Requires additional scrutiny by compliance officers. Suspicious transaction report filed.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Industry Code Scheme</t>
+          <t>TXN009</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLCO4001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
-        </is>
+          <t>CUST009</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Free text indicating the obligor rating grade.</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Domestic fund transfer between personal accounts. Transaction under routine compliance review. No prior AML flags detected. Processing pending confirmation.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Obligor Rating Grade</t>
+          <t>TXN010</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLCO5023</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
-        </is>
+          <t>CUST010</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9-digit IRS identification number.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Fixed deposit maturity amount credited to savings account. Expected transaction as per account history. Compliance verification successful. Approved for credit.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>TXN011</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST011</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4800</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Customer received pension fund deposit. Expected transaction as per customer history. No AML concerns raised. Compliance check completed successfully.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>TXN013</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST013</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3200</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Customer transferred funds to a new recipient. Transaction held for compliance verification. Awaiting further transaction details from customer.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>TXN014</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST014</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Bonus payout received from employer. Regular transaction for this customer. No irregularities detected. Cleared after compliance review.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CUSIP Number</t>
+          <t>TXN016</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLCO9007</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
-        </is>
+          <t>CUST016</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5500</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number.</t>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Transfer</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>International wire transfer to business partner. Compliance checks in progress. Awaiting confirmation of transaction purpose.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Credit Facility Type</t>
+          <t>TXN017</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLCO9017</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Report the obligor name on the credit facility.</t>
-        </is>
+          <t>CUST017</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>6000</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Regular paycheck deposit credited. No unusual activity observed. Transaction successfully processed after routine compliance review.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Obligor City</t>
+          <t>TXN020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLCO9031</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Report the domicile of the obligor.</t>
-        </is>
+          <t>CUST020</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>20000</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Use the 2-letter Country Code.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Industry Code Scheme</t>
+          <t>TXN024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLCO4001</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
-        </is>
+          <t>CUST024</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>29250</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Free text indicating the obligor rating grade.</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Obligor Rating Grade</t>
+          <t>TXN028</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLCO5023</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
-        </is>
+          <t>CUST028</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>42250</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9-digit IRS identification number.</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>TXN032</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST032</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>55250</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>TXN036</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST036</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>68250</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>TXN040</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST040</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>81250</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CUSIP Number</t>
+          <t>TXN044</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLCO9007</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
-        </is>
+          <t>CUST044</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>94250</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Credit Facility Type</t>
+          <t>TXN048</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLCO9017</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Report the obligor name on the credit facility.</t>
-        </is>
+          <t>CUST048</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>107250</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Obligor City</t>
+          <t>TXN052</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLCO9031</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Report the domicile of the obligor.</t>
-        </is>
+          <t>CUST052</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>120250</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Use the 2-letter Country Code.</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Industry Code Scheme</t>
+          <t>TXN056</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLCO4001</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
-        </is>
+          <t>CUST056</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>133250</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Free text indicating the obligor rating grade.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Obligor Rating Grade</t>
+          <t>TXN060</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLCO5023</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
-        </is>
+          <t>CUST060</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>146250</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9-digit IRS identification number.</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>TXN061</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST061</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>149500</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>TXN064</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST064</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>159250</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>TXN065</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST065</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>162500</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CUSIP Number</t>
+          <t>TXN068</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CLCO9007</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
-        </is>
+          <t>CUST068</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>172250</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Credit Facility Type</t>
+          <t>TXN072</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CLCO9017</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Report the obligor name on the credit facility.</t>
-        </is>
+          <t>CUST072</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>185250</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Obligor City</t>
+          <t>TXN073</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CLCO9031</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Report the domicile of the obligor.</t>
-        </is>
+          <t>CUST073</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>188500</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Use the 2-letter Country Code.</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Industry Code Scheme</t>
+          <t>TXN076</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CLCO4001</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
-        </is>
+          <t>CUST076</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>198250</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Free text indicating the obligor rating grade.</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Obligor Rating Grade</t>
+          <t>TXN077</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CLCO5023</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
-        </is>
+          <t>CUST077</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>201500</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>9-digit IRS identification number.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>TXN080</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST080</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>211250</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>TXN081</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST081</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>214500</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>TXN084</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST084</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>224250</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CUSIP Number</t>
+          <t>TXN085</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CLCO9007</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
-        </is>
+          <t>CUST085</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>227500</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number.</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Credit Facility Type</t>
+          <t>TXN088</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CLCO9017</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Report the obligor name on the credit facility.</t>
-        </is>
+          <t>CUST088</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>237250</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Obligor City</t>
+          <t>TXN089</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CLCO9031</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Report the domicile of the obligor.</t>
-        </is>
+          <t>CUST089</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>240500</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Use the 2-letter Country Code.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Industry Code Scheme</t>
+          <t>TXN092</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CLCO4001</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
-        </is>
+          <t>CUST092</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>250250</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Free text indicating the obligor rating grade.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Obligor Rating Grade</t>
+          <t>TXN093</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CLCO5023</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
-        </is>
+          <t>CUST093</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>253500</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9-digit IRS identification number.</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>TXN096</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST096</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>263250</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>TXN097</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST097</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>266500</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>TXN100</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST100</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>276250</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CUSIP Number</t>
+          <t>TXN101</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CLCO9007</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
-        </is>
+          <t>CUST101</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>279500</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Credit Facility Type</t>
+          <t>TXN104</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CLCO9017</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Report the obligor name on the credit facility.</t>
-        </is>
+          <t>CUST104</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>289250</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Obligor City</t>
+          <t>TXN105</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CLCO9031</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Report the domicile of the obligor.</t>
-        </is>
+          <t>CUST105</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>292500</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Use the 2-letter Country Code.</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Industry Code Scheme</t>
+          <t>TXN108</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CLCO4001</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
-        </is>
+          <t>CUST108</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>302250</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Free text indicating the obligor rating grade.</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Obligor Rating Grade</t>
+          <t>TXN109</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CLCO5023</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>The 9-digit identification assigned by the IRS for the obligor.</t>
-        </is>
+          <t>CUST109</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>305500</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9-digit IRS identification number.</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IRS Identification</t>
+          <t>TXN112</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CLCO6002</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST112</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>315250</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Other Info 1</t>
+          <t>TXN113</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CLCO7005</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST113</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>318500</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Other Info 2</t>
+          <t>TXN116</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CLCO8006</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Free text</t>
-        </is>
+          <t>CUST116</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>328250</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Free text</t>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CUSIP Number</t>
+          <t>TXN117</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CLCO9007</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Must be valid 6-digit CUSIP number issued by the CUSIP Service Bureau.</t>
-        </is>
+          <t>CUST117</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>331500</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Must be valid 6-digit CUSIP number.</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Credit Facility Type</t>
+          <t>TXN120</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CLCO9017</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Report the obligor name on the credit facility.</t>
-        </is>
+          <t>CUST120</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>341250</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Must not contain a carriage return, line feed, comma or any unprintable character.</t>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Obligor City</t>
+          <t>TXN121</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CLCO9031</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Report the domicile of the obligor.</t>
-        </is>
+          <t>CUST121</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>344500</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Use the 2-letter Country Code.</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Industry Code Scheme</t>
+          <t>TXN124</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CLCO4001</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Report the obligor rating grade from the reporting entity’s internal risk rating system.</t>
-        </is>
+          <t>CUST124</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>354250</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Free text indicating the obligor rating grade.</t>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>TXN125</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CUST125</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>357500</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TXN126</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CUST126</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>360750</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TXN128</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CUST128</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>367250</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>TXN129</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CUST129</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>370500</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>TXN132</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CUST132</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>380250</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>TXN133</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CUST133</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>383500</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>TXN136</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CUST136</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>393250</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>TXN140</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CUST140</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>406250</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>TXN144</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CUST144</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>419250</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>TXN148</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CUST148</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>432250</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>TXN152</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CUST152</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>445250</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TXN156</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CUST156</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>458250</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>TXN160</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CUST160</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>471250</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>TXN164</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CUST164</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>484250</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>TXN168</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CUST168</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>497250</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>TXN172</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CUST172</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>510250</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>TXN176</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CUST176</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>523250</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>TXN180</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CUST180</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>536250</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TXN184</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CUST184</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>549250</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>TXN188</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CUST188</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>562250</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>TXN192</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CUST192</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>575250</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>TXN196</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CUST196</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>588250</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>TXN200</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CUST200</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>601250</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TXN204</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CUST204</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>614250</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>TXN208</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CUST208</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>627250</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TXN209</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CUST209</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>630500</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>TXN212</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CUST212</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>640250</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>TXN213</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CUST213</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>643500</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>TXN216</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CUST216</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>653250</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TXN217</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CUST217</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>656500</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TXN220</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CUST220</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>666250</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TXN221</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CUST221</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>669500</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>TXN224</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CUST224</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>679250</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TXN225</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CUST225</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>682500</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TXN228</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CUST228</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>692250</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>TXN229</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CUST229</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>695500</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>TXN232</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CUST232</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>705250</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>TXN233</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CUST233</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>708500</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>TXN236</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CUST236</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>718250</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>TXN237</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CUST237</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>721500</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>TXN240</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CUST240</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>731250</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TXN241</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CUST241</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>734500</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>TXN244</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CUST244</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>744250</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>TXN245</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CUST245</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>747500</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>TXN248</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CUST248</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>757250</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>TXN249</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CUST249</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>760500</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TXN252</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CUST252</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>770250</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>TXN253</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CUST253</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>773500</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>TXN256</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>CUST256</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>783250</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>TXN257</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CUST257</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>786500</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>TXN260</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CUST260</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>796250</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>TXN261</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CUST261</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>799500</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TXN264</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CUST264</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>809250</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>TXN265</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CUST265</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>812500</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>TXN268</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CUST268</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>822250</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TXN269</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CUST269</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>825500</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Deposit</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Verified</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Passed</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Customer received funds from family overseas. Regular transaction history supports legitimacy. Cleared for credit.</t>
         </is>
       </c>
     </row>
